--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>13.1660540994694</v>
+        <v>0.1470843333333333</v>
       </c>
       <c r="H2">
-        <v>13.1660540994694</v>
+        <v>0.441253</v>
       </c>
       <c r="I2">
-        <v>0.9825419167062526</v>
+        <v>0.01080519019772543</v>
       </c>
       <c r="J2">
-        <v>0.9825419167062526</v>
+        <v>0.01080519019772543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.28411963215797</v>
+        <v>2.553279333333334</v>
       </c>
       <c r="N2">
-        <v>2.28411963215797</v>
+        <v>7.659838000000001</v>
       </c>
       <c r="O2">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="P2">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="Q2">
-        <v>30.07284264665198</v>
+        <v>0.3755473885571112</v>
       </c>
       <c r="R2">
-        <v>30.07284264665198</v>
+        <v>3.379926497014</v>
       </c>
       <c r="S2">
-        <v>0.1491589407517618</v>
+        <v>0.001777501226695341</v>
       </c>
       <c r="T2">
-        <v>0.1491589407517618</v>
+        <v>0.00177750122669534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>13.1660540994694</v>
+        <v>0.1470843333333333</v>
       </c>
       <c r="H3">
-        <v>13.1660540994694</v>
+        <v>0.441253</v>
       </c>
       <c r="I3">
-        <v>0.9825419167062526</v>
+        <v>0.01080519019772543</v>
       </c>
       <c r="J3">
-        <v>0.9825419167062526</v>
+        <v>0.01080519019772543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.01234071591097</v>
+        <v>8.058662</v>
       </c>
       <c r="N3">
-        <v>8.01234071591097</v>
+        <v>24.175986</v>
       </c>
       <c r="O3">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="P3">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="Q3">
-        <v>105.4909113290652</v>
+        <v>1.185302927828667</v>
       </c>
       <c r="R3">
-        <v>105.4909113290652</v>
+        <v>10.667726350458</v>
       </c>
       <c r="S3">
-        <v>0.5232266459696711</v>
+        <v>0.005610150602606657</v>
       </c>
       <c r="T3">
-        <v>0.5232266459696711</v>
+        <v>0.005610150602606657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>13.1660540994694</v>
+        <v>0.1470843333333333</v>
       </c>
       <c r="H4">
-        <v>13.1660540994694</v>
+        <v>0.441253</v>
       </c>
       <c r="I4">
-        <v>0.9825419167062526</v>
+        <v>0.01080519019772543</v>
       </c>
       <c r="J4">
-        <v>0.9825419167062526</v>
+        <v>0.01080519019772543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.7495252968805</v>
+        <v>4.909099333333334</v>
       </c>
       <c r="N4">
-        <v>4.7495252968805</v>
+        <v>14.727298</v>
       </c>
       <c r="O4">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="P4">
-        <v>0.315667275574917</v>
+        <v>0.3162867386770157</v>
       </c>
       <c r="Q4">
-        <v>62.53250700552713</v>
+        <v>0.7220516027104446</v>
       </c>
       <c r="R4">
-        <v>62.53250700552713</v>
+        <v>6.498464424394</v>
       </c>
       <c r="S4">
-        <v>0.3101563299848197</v>
+        <v>0.003417538368423436</v>
       </c>
       <c r="T4">
-        <v>0.3101563299848197</v>
+        <v>0.003417538368423436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.233938181374545</v>
+        <v>13.22273466666667</v>
       </c>
       <c r="H5">
-        <v>0.233938181374545</v>
+        <v>39.668204</v>
       </c>
       <c r="I5">
-        <v>0.01745808329374734</v>
+        <v>0.9713758071269154</v>
       </c>
       <c r="J5">
-        <v>0.01745808329374734</v>
+        <v>0.9713758071269153</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.28411963215797</v>
+        <v>2.553279333333334</v>
       </c>
       <c r="N5">
-        <v>2.28411963215797</v>
+        <v>7.659838000000001</v>
       </c>
       <c r="O5">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="P5">
-        <v>0.1518092390926009</v>
+        <v>0.1645043904057808</v>
       </c>
       <c r="Q5">
-        <v>0.5343427927889302</v>
+        <v>33.76133515455022</v>
       </c>
       <c r="R5">
-        <v>0.5343427927889302</v>
+        <v>303.852016390952</v>
       </c>
       <c r="S5">
-        <v>0.002650298340839031</v>
+        <v>0.1597955850063365</v>
       </c>
       <c r="T5">
-        <v>0.002650298340839031</v>
+        <v>0.1597955850063365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.233938181374545</v>
+        <v>13.22273466666667</v>
       </c>
       <c r="H6">
-        <v>0.233938181374545</v>
+        <v>39.668204</v>
       </c>
       <c r="I6">
-        <v>0.01745808329374734</v>
+        <v>0.9713758071269154</v>
       </c>
       <c r="J6">
-        <v>0.01745808329374734</v>
+        <v>0.9713758071269153</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.01234071591097</v>
+        <v>8.058662</v>
       </c>
       <c r="N6">
-        <v>8.01234071591097</v>
+        <v>24.175986</v>
       </c>
       <c r="O6">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="P6">
-        <v>0.5325234853324822</v>
+        <v>0.5192088709172035</v>
       </c>
       <c r="Q6">
-        <v>1.874392415633432</v>
+        <v>106.5575493943493</v>
       </c>
       <c r="R6">
-        <v>1.874392415633432</v>
+        <v>959.017944549144</v>
       </c>
       <c r="S6">
-        <v>0.009296839362811112</v>
+        <v>0.504346936054653</v>
       </c>
       <c r="T6">
-        <v>0.009296839362811112</v>
+        <v>0.5043469360546529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>13.22273466666667</v>
+      </c>
+      <c r="H7">
+        <v>39.668204</v>
+      </c>
+      <c r="I7">
+        <v>0.9713758071269154</v>
+      </c>
+      <c r="J7">
+        <v>0.9713758071269153</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.909099333333334</v>
+      </c>
+      <c r="N7">
+        <v>14.727298</v>
+      </c>
+      <c r="O7">
+        <v>0.3162867386770157</v>
+      </c>
+      <c r="P7">
+        <v>0.3162867386770157</v>
+      </c>
+      <c r="Q7">
+        <v>64.91171793697688</v>
+      </c>
+      <c r="R7">
+        <v>584.2054614327919</v>
+      </c>
+      <c r="S7">
+        <v>0.3072332860659259</v>
+      </c>
+      <c r="T7">
+        <v>0.3072332860659258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.242559</v>
+      </c>
+      <c r="H8">
+        <v>0.7276769999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.01781900267535914</v>
+      </c>
+      <c r="J8">
+        <v>0.01781900267535914</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.553279333333334</v>
+      </c>
+      <c r="N8">
+        <v>7.659838000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1645043904057808</v>
+      </c>
+      <c r="P8">
+        <v>0.1645043904057808</v>
+      </c>
+      <c r="Q8">
+        <v>0.619320881814</v>
+      </c>
+      <c r="R8">
+        <v>5.573887936326</v>
+      </c>
+      <c r="S8">
+        <v>0.002931304172748933</v>
+      </c>
+      <c r="T8">
+        <v>0.002931304172748933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.233938181374545</v>
-      </c>
-      <c r="H7">
-        <v>0.233938181374545</v>
-      </c>
-      <c r="I7">
-        <v>0.01745808329374734</v>
-      </c>
-      <c r="J7">
-        <v>0.01745808329374734</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.7495252968805</v>
-      </c>
-      <c r="N7">
-        <v>4.7495252968805</v>
-      </c>
-      <c r="O7">
-        <v>0.315667275574917</v>
-      </c>
-      <c r="P7">
-        <v>0.315667275574917</v>
-      </c>
-      <c r="Q7">
-        <v>1.11109531034462</v>
-      </c>
-      <c r="R7">
-        <v>1.11109531034462</v>
-      </c>
-      <c r="S7">
-        <v>0.005510945590097195</v>
-      </c>
-      <c r="T7">
-        <v>0.005510945590097195</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.242559</v>
+      </c>
+      <c r="H9">
+        <v>0.7276769999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.01781900267535914</v>
+      </c>
+      <c r="J9">
+        <v>0.01781900267535914</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.058662</v>
+      </c>
+      <c r="N9">
+        <v>24.175986</v>
+      </c>
+      <c r="O9">
+        <v>0.5192088709172035</v>
+      </c>
+      <c r="P9">
+        <v>0.5192088709172035</v>
+      </c>
+      <c r="Q9">
+        <v>1.954700996058</v>
+      </c>
+      <c r="R9">
+        <v>17.592308964522</v>
+      </c>
+      <c r="S9">
+        <v>0.009251784259943848</v>
+      </c>
+      <c r="T9">
+        <v>0.009251784259943848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.242559</v>
+      </c>
+      <c r="H10">
+        <v>0.7276769999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.01781900267535914</v>
+      </c>
+      <c r="J10">
+        <v>0.01781900267535914</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.909099333333334</v>
+      </c>
+      <c r="N10">
+        <v>14.727298</v>
+      </c>
+      <c r="O10">
+        <v>0.3162867386770157</v>
+      </c>
+      <c r="P10">
+        <v>0.3162867386770157</v>
+      </c>
+      <c r="Q10">
+        <v>1.190746225194</v>
+      </c>
+      <c r="R10">
+        <v>10.716716026746</v>
+      </c>
+      <c r="S10">
+        <v>0.005635914242666361</v>
+      </c>
+      <c r="T10">
+        <v>0.005635914242666361</v>
       </c>
     </row>
   </sheetData>
